--- a/human_range.xlsx
+++ b/human_range.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/PycharmProjects/MLHC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262EE5D7-70EF-9B4C-8F7E-037FAFB04353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D600519-F221-5C4B-858D-8CAE3432EF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="32660" windowHeight="18140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,27 +269,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF6A8759"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -300,45 +284,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -347,24 +296,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,11 +584,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="3" width="8.83203125" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -665,805 +606,805 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>10</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
         <v>20000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
         <v>20000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
         <v>20000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
         <v>1500</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>20</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="3">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
         <v>2000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="1">
         <v>2</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="1">
         <v>0.5</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="1">
         <v>0.2</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="3">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
         <v>50000</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>0.2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>0.2</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="3">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="1">
         <v>50</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <v>50</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="1">
         <v>2000</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="3">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3">
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="3">
-        <v>0</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
         <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="3">
-        <v>0</v>
-      </c>
-      <c r="C40" s="3">
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="1">
         <v>6.6</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="1">
         <v>7.8</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="3">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="3">
-        <v>0</v>
-      </c>
-      <c r="C43" s="3">
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="1">
         <v>1</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="1">
         <v>5</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="1">
         <v>5</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="1">
         <v>10</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="1">
         <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="1">
         <v>1</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="1">
         <v>5</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="1">
         <v>1</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="1">
         <v>1</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="1">
         <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="1">
         <v>40</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="1">
         <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="1">
         <v>110</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="1">
         <v>5</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="1">
         <v>5</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="1">
         <v>5</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="3">
-        <v>0</v>
-      </c>
-      <c r="C57" s="3">
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="1">
         <v>20</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="1">
         <v>10</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="1">
         <v>2000</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="1">
         <v>1</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="1">
         <v>40000</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B61" s="3">
-        <v>100</v>
-      </c>
-      <c r="C61" s="3">
+      <c r="B61" s="1">
+        <v>100</v>
+      </c>
+      <c r="C61" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="3">
-        <v>100</v>
-      </c>
-      <c r="C62" s="3">
+      <c r="B62" s="1">
+        <v>100</v>
+      </c>
+      <c r="C62" s="1">
         <v>3500</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="1">
         <v>10</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="3">
-        <v>100</v>
-      </c>
-      <c r="C64" s="3">
+      <c r="B64" s="1">
+        <v>100</v>
+      </c>
+      <c r="C64" s="1">
         <v>2500</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="1">
         <v>0.2</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="1">
         <v>40</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="1">
         <v>80</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="1">
         <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="1">
         <v>5</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="4">
-        <v>0</v>
-      </c>
-      <c r="C69" s="4">
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="1">
         <v>8</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="1">
         <v>7</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="1">
         <v>70</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="1">
         <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="1">
         <v>20</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="1">
         <v>0.2</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="1">
         <v>100</v>
       </c>
     </row>
